--- a/BettingOdds_Calced.xlsx
+++ b/BettingOdds_Calced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shill\Dropbox\Illumined Analytics\Blogposts\WC Sim\WC Bet Viz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181D6F18-56B3-4F8E-96BE-7BBBF368FEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A86C8C-6695-46C7-B8AF-E9550B371B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D34FE74-2973-4590-AE81-9B54826D0CBB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="46">
   <si>
     <t>Team</t>
   </si>
@@ -180,6 +180,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode=";;;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +282,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0F911D-BB21-481B-97A3-B7079CB0300B}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,8 +617,10 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="6" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
     <col min="12" max="15" width="6.77734375" customWidth="1"/>
     <col min="16" max="16" width="4.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" customWidth="1"/>
     <col min="19" max="22" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1682,7 +1696,7 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1703,19 +1717,43 @@
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="J20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="Q20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -1738,6 +1776,45 @@
         <v>0.33324649262233108</v>
       </c>
       <c r="H21" s="12"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0.6133210067340481</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0.23935347854186326</v>
+      </c>
+      <c r="N21" s="13">
+        <v>0.12196299270069105</v>
+      </c>
+      <c r="O21" s="13">
+        <v>2.5362522023397574E-2</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="13">
+        <v>0.48416416148288549</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0.3696939777412141</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0.1284338814819827</v>
+      </c>
+      <c r="V21" s="13">
+        <v>1.7707979293917629E-2</v>
+      </c>
+      <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -1759,6 +1836,45 @@
         <v>0.62198182915770306</v>
       </c>
       <c r="H22" s="12"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0.21312686926115895</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0.33790029509712377</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0.29914526972910294</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0.14982756591261442</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="13">
+        <v>0.43046827076417488</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0.4114568226881114</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0.13302749362148777</v>
+      </c>
+      <c r="V22" s="13">
+        <v>2.504741292622592E-2</v>
+      </c>
+      <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1780,6 +1896,45 @@
         <v>3.1282496006572028E-2</v>
       </c>
       <c r="H23" s="12"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0.13216415166109555</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0.31078598699707138</v>
+      </c>
+      <c r="N23" s="13">
+        <v>0.33570303822413183</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0.22134682311770124</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="13">
+        <v>6.9387471702263712E-2</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0.11963783308400912</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0.4777282025913962</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0.33324649262233108</v>
+      </c>
+      <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -1801,6 +1956,45 @@
         <v>0.11163236872485542</v>
       </c>
       <c r="H24" s="12"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="14">
+        <v>4.7888964473219449E-2</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0.11023383256147468</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0.2398534495810557</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.60202375338425018</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="14">
+        <v>1.7655083605662099E-2</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0.10027252815543052</v>
+      </c>
+      <c r="U24" s="14">
+        <v>0.26009055908120438</v>
+      </c>
+      <c r="V24" s="14">
+        <v>0.62198182915770306</v>
+      </c>
+      <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -1822,6 +2016,45 @@
         <v>0.42881920513998484</v>
       </c>
       <c r="H25" s="12"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0.65704371282264096</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0.23807219497712334</v>
+      </c>
+      <c r="N25" s="13">
+        <v>8.7132207457524868E-2</v>
+      </c>
+      <c r="O25" s="13">
+        <v>1.7751884742710847E-2</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0.60301180432958312</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0.25133060910660282</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0.114375090557242</v>
+      </c>
+      <c r="V25" s="13">
+        <v>3.1282496006572028E-2</v>
+      </c>
+      <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -1843,6 +2076,45 @@
         <v>0.42710086434718447</v>
       </c>
       <c r="H26" s="12"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0.14690613506473299</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0.33731662100314636</v>
+      </c>
+      <c r="N26" s="13">
+        <v>0.36092077573117098</v>
+      </c>
+      <c r="O26" s="13">
+        <v>0.1548564682009497</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="13">
+        <v>0.23744691779852792</v>
+      </c>
+      <c r="T26" s="13">
+        <v>0.35732516089378924</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0.29359555258282743</v>
+      </c>
+      <c r="V26" s="13">
+        <v>0.11163236872485542</v>
+      </c>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -1864,6 +2136,45 @@
         <v>1.8174798917720444E-2</v>
       </c>
       <c r="H27" s="12"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0.1496236101923844</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0.29870042779510309</v>
+      </c>
+      <c r="N27" s="13">
+        <v>0.3702968017942731</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0.18137916021823935</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="13">
+        <v>8.1624120393669133E-2</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0.18757405277401745</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0.30198262169232848</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0.42881920513998484</v>
+      </c>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1885,6 +2196,45 @@
         <v>0.22305316094444702</v>
       </c>
       <c r="H28" s="12"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="14">
+        <v>4.7322869727990997E-2</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0.12412098574118631</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0.17976838196283951</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0.64878776256798321</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="14">
+        <v>8.1297040696520051E-2</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0.20307208038213537</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0.28853001457416005</v>
+      </c>
+      <c r="V28" s="14">
+        <v>0.42710086434718447</v>
+      </c>
+      <c r="W28" s="4"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1906,6 +2256,45 @@
         <v>0.22305316094444702</v>
       </c>
       <c r="H29" s="12"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0.65650890605885937</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0.22363034215121616</v>
+      </c>
+      <c r="N29" s="13">
+        <v>9.4276104870798905E-2</v>
+      </c>
+      <c r="O29" s="13">
+        <v>2.5584646919125577E-2</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="13">
+        <v>0.67682061199547472</v>
+      </c>
+      <c r="T29" s="13">
+        <v>0.19538821622208702</v>
+      </c>
+      <c r="U29" s="13">
+        <v>0.10961637286471791</v>
+      </c>
+      <c r="V29" s="13">
+        <v>1.8174798917720444E-2</v>
+      </c>
+      <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -1927,6 +2316,45 @@
         <v>0.53442992132468037</v>
       </c>
       <c r="H30" s="12"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0.16192511485605848</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0.3218930410656049</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0.37887985856636858</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0.13730198551196798</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="13">
+        <v>0.13671090955197918</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0.32504424312206465</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0.3151916863815093</v>
+      </c>
+      <c r="V30" s="13">
+        <v>0.22305316094444702</v>
+      </c>
+      <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -1948,6 +2376,45 @@
         <v>3.1155792058652335E-2</v>
       </c>
       <c r="H31" s="12"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0.15488489247101248</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0.32893326345065088</v>
+      </c>
+      <c r="N31" s="13">
+        <v>0.37338777914588983</v>
+      </c>
+      <c r="O31" s="13">
+        <v>0.14279406493244673</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" s="13">
+        <v>0.13671090955197918</v>
+      </c>
+      <c r="T31" s="13">
+        <v>0.32504424312206465</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0.3151916863815093</v>
+      </c>
+      <c r="V31" s="13">
+        <v>0.22305316094444702</v>
+      </c>
+      <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -1969,8 +2436,47 @@
         <v>0.11305826739618288</v>
       </c>
       <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="4"/>
+      <c r="J32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="14">
+        <v>3.4958653939387623E-2</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0.12214561515935918</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0.14653611512968054</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.69635961577157268</v>
+      </c>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" s="14">
+        <v>6.0821689475288009E-2</v>
+      </c>
+      <c r="T32" s="14">
+        <v>0.14987729459106902</v>
+      </c>
+      <c r="U32" s="14">
+        <v>0.25487109460896257</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0.53442992132468037</v>
+      </c>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1990,8 +2496,47 @@
         <v>0.41417896572615248</v>
       </c>
       <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0.63001376531896514</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0.24359910234363599</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0.10400583214488886</v>
+      </c>
+      <c r="O33" s="13">
+        <v>2.2381300192510053E-2</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S33" s="13">
+        <v>0.54239006983408544</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0.24915965296770867</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0.17729448513955359</v>
+      </c>
+      <c r="V33" s="13">
+        <v>3.1155792058652335E-2</v>
+      </c>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
@@ -2011,9 +2556,194 @@
         <v>0.44448474370611496</v>
       </c>
       <c r="H34" s="12"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0.25470570651191743</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0.40752441524755489</v>
+      </c>
+      <c r="N34" s="13">
+        <v>0.27782288602195743</v>
+      </c>
+      <c r="O34" s="13">
+        <v>5.9946992218570264E-2</v>
+      </c>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S34" s="13">
+        <v>0.30170436469913886</v>
+      </c>
+      <c r="T34" s="13">
+        <v>0.32269138309145046</v>
+      </c>
+      <c r="U34" s="13">
+        <v>0.26254598481322788</v>
+      </c>
+      <c r="V34" s="13">
+        <v>0.11305826739618288</v>
+      </c>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="13">
+        <v>5.991659769962214E-2</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0.17375646954383339</v>
+      </c>
+      <c r="N35" s="13">
+        <v>0.33463786954546215</v>
+      </c>
+      <c r="O35" s="13">
+        <v>0.43168906321108241</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S35" s="13">
+        <v>8.289504469956227E-2</v>
+      </c>
+      <c r="T35" s="13">
+        <v>0.20743116368059458</v>
+      </c>
+      <c r="U35" s="13">
+        <v>0.29549482589369069</v>
+      </c>
+      <c r="V35" s="13">
+        <v>0.41417896572615248</v>
+      </c>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="4"/>
+      <c r="J36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="15">
+        <v>5.9916597699622126E-2</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0.17375646954383336</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0.28154242326816326</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0.48478450948838114</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S36" s="15">
+        <v>7.0141960899629624E-2</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0.22018424748052726</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0.26518904791372822</v>
+      </c>
+      <c r="V36" s="15">
+        <v>0.44448474370611496</v>
+      </c>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C34">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D34">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F34">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L18 S3:S18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2023,7 +2753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D34">
+  <conditionalFormatting sqref="L3:M18 S3:T18">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2033,7 +2763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F34">
+  <conditionalFormatting sqref="N3:O18 U3:V18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2043,7 +2773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L18 S3:S18">
+  <conditionalFormatting sqref="L21:L36 S21:S36">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2053,7 +2783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M18 S3:T18">
+  <conditionalFormatting sqref="L21:M36 S21:T36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2063,7 +2793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:O18 U3:V18">
+  <conditionalFormatting sqref="N21:O36 U21:V36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
